--- a/Data/Lagged Indicator Metadata.xlsx
+++ b/Data/Lagged Indicator Metadata.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>beninvert_cpue</t>
   </si>
@@ -124,9 +124,6 @@
     <t>Rationale for assigning lag</t>
   </si>
   <si>
-    <t>Represents prey items across ontogeny</t>
-  </si>
-  <si>
     <t xml:space="preserve">Not a driver of recruitment, removed from BAS suite of indicators </t>
   </si>
   <si>
@@ -139,9 +136,6 @@
     <t>imm_abund</t>
   </si>
   <si>
-    <t>EBS BT survey abundance (in millions) of male snow crab 50-65mm. 50mm minimum selected using BSFRF selectivity curves. See Sainte-Marie 1995 for size at age estimates to assign lags (males 50-65mm estimated 5.7-6.7 years post-settlement)</t>
-  </si>
-  <si>
     <t>Survey lag (in years)</t>
   </si>
   <si>
@@ -161,13 +155,46 @@
   </si>
   <si>
     <t xml:space="preserve">Spring pH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Growth is around 18-22%, so 95-120mm crab are all likely one cohort </t>
+  </si>
+  <si>
+    <t>EBS BT survey abundance (in millions) of male immature BBRKC 95-120mm. See Loher and Armstrong 2001, table 5 for size at age estimates to assign lags (males 95-120mm estimated 6-7.9 years post-settlement)</t>
+  </si>
+  <si>
+    <t>Predators of larval stages of RKC</t>
+  </si>
+  <si>
+    <t>Represents prey items across ontogeny; reduced prey may impact survival to recruitment the following year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very few observations of RKC in cod stomachs but average RKC size is 106mm. Assigned lag 1 assuming large predation would reduce recruitment the following year </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First-feeding success of RKC larvae has also been linked to high diatom abundances, light winds and water column stability </t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">increases in the AO were associated with increased recruitment (Szuwalkski et al); large-scale indices lagged to the year of larval release because environmental effects are thought to influence the larval phases most strongly; </t>
+  </si>
+  <si>
+    <t>Effects on survival of YOY RKC at 2C above ambient</t>
+  </si>
+  <si>
+    <t>Effects of survival on YOY RKC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mature female distance from SW BB inversly related to cold pool extent. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +215,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -219,11 +253,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E17"/>
+  <dimension ref="A2:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,7 +571,7 @@
         <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -547,10 +585,10 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -563,6 +601,12 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -574,6 +618,12 @@
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="5">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -585,6 +635,12 @@
       <c r="C6" t="s">
         <v>19</v>
       </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -596,6 +652,12 @@
       <c r="C7" t="s">
         <v>21</v>
       </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="5">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -608,7 +670,10 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -622,7 +687,10 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -636,7 +704,10 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -649,50 +720,80 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="5">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="5">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="5">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="5">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Lagged Indicator Metadata.xlsx
+++ b/Data/Lagged Indicator Metadata.xlsx
@@ -545,7 +545,7 @@
   <dimension ref="A2:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/Lagged Indicator Metadata.xlsx
+++ b/Data/Lagged Indicator Metadata.xlsx
@@ -187,7 +187,7 @@
     <t>Effects of survival on YOY RKC</t>
   </si>
   <si>
-    <t xml:space="preserve">Mature female distance from SW BB inversly related to cold pool extent. </t>
+    <t xml:space="preserve">Mature female distance from SW BB inversly related to cold pool extent. Also larger cold pool suggests reduced spatial overlap with pcod predators </t>
   </si>
 </sst>
 </file>

--- a/Data/Lagged Indicator Metadata.xlsx
+++ b/Data/Lagged Indicator Metadata.xlsx
@@ -178,16 +178,16 @@
     <t>NA</t>
   </si>
   <si>
-    <t xml:space="preserve">increases in the AO were associated with increased recruitment (Szuwalkski et al); large-scale indices lagged to the year of larval release because environmental effects are thought to influence the larval phases most strongly; </t>
-  </si>
-  <si>
-    <t>Effects on survival of YOY RKC at 2C above ambient</t>
-  </si>
-  <si>
-    <t>Effects of survival on YOY RKC</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mature female distance from SW BB inversly related to cold pool extent. Also larger cold pool suggests reduced spatial overlap with pcod predators </t>
+  </si>
+  <si>
+    <t>Effects of survival on YOY RKC (see Long et al. 2013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">increases in the AO were associated with increased recruitment (see Szuwalski et al. 2020); large-scale indices lagged to the year of larval release because environmental effects are thought to influence the larval phases most strongly; </t>
+  </si>
+  <si>
+    <t>Effects on survival of YOY RKC at 2C above ambient (see Swiney et al. 2017)</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
   <dimension ref="A2:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,7 +619,7 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E5" s="5">
         <v>6</v>
@@ -636,7 +636,7 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E6" s="5">
         <v>2</v>
@@ -653,7 +653,7 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E7" s="5">
         <v>7</v>
@@ -763,7 +763,7 @@
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" s="5">
         <v>6</v>
